--- a/ConfigurationFiles/01-FA_Whitelist_TG.xlsx
+++ b/ConfigurationFiles/01-FA_Whitelist_TG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="69">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -75,18 +75,9 @@
     <t>P-20:0</t>
   </si>
   <si>
-    <t>sn1</t>
-  </si>
-  <si>
-    <t>sn2</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>sn3</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
@@ -205,6 +196,36 @@
   </si>
   <si>
     <t>DG</t>
+  </si>
+  <si>
+    <t>fa1</t>
+  </si>
+  <si>
+    <t>fa2</t>
+  </si>
+  <si>
+    <t>fa3</t>
+  </si>
+  <si>
+    <t>FA11:0</t>
+  </si>
+  <si>
+    <t>FA4:0</t>
+  </si>
+  <si>
+    <t>FA5:0</t>
+  </si>
+  <si>
+    <t>FA6:0</t>
+  </si>
+  <si>
+    <t>FA7:0</t>
+  </si>
+  <si>
+    <t>FA9:0</t>
+  </si>
+  <si>
+    <t>FA25:0</t>
   </si>
 </sst>
 </file>
@@ -522,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,1051 +559,1188 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
